--- a/diem_danh_giay_26_03_23_04_28_35.xlsx
+++ b/diem_danh_giay_26_03_23_04_28_35.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="11_4298C9BB8540ECE7F1E496C31444D501E8E0D660" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E79AE4A-ACAF-964A-AB99-46AEE32B2A4F}"/>
   <bookViews>
-    <workbookView xWindow="-34020" yWindow="1720" windowWidth="21620" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="3300" windowWidth="14400" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
